--- a/一品艺活数据接口v1.1.1.xlsx
+++ b/一品艺活数据接口v1.1.1.xlsx
@@ -133,6 +133,7 @@
 200：请求成功；
 300：无数据；
 400：非法请求；
+500：请求类型错误；
 701：注册方式不存在；</t>
   </si>
 </sst>
@@ -141,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -180,6 +181,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,107 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +324,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,90 +498,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,84 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,26 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +544,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,17 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,16 +635,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,115 +653,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1135,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="A12" sqref="A12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/一品艺活数据接口v1.1.1.xlsx
+++ b/一品艺活数据接口v1.1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23205" windowHeight="12060"/>
+    <workbookView windowWidth="22665" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:G15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>模块</t>
   </si>
@@ -136,15 +137,18 @@
 500：请求类型错误；
 701：注册方式不存在；</t>
   </si>
+  <si>
+    <t>i_type返回数据格式类型; 0:base64;1;json_encode;2:array</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -180,6 +184,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -188,53 +207,49 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,46 +263,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,15 +295,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +519,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,6 +548,44 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,50 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,15 +619,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,137 +639,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +787,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1134,8 +1141,8 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1351,9 +1358,29 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
     <row r="22" ht="9" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -1367,6 +1394,7 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="A12:G15"/>
+    <mergeCell ref="A16:G17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://cmf.zb/portal/api/index"/>

--- a/一品艺活数据接口v1.1.1.xlsx
+++ b/一品艺活数据接口v1.1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="9930"/>
+    <workbookView windowWidth="17280" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>首页</t>
   </si>
   <si>
-    <t>http://cmf.zb/portal/api/index</t>
+    <t>http://yp.5dogo.shop/portal/api/index?token=ypyh&amp;i_type=1</t>
   </si>
   <si>
     <t>GET</t>
@@ -53,45 +53,45 @@
   </si>
   <si>
     <t>{
-    "code": 200,
-    "message": "信息请求成功",
-    "data": [
+    "code":200,
+    "message":"信息请求成功",
+    "data":[
         {
-            "post_title": "一品艺活首页",
-            "post_excerpt": "我的艺活",
-            "post_content": "&lt;p&gt;一品艺活一品艺活内容&lt;/p&gt;",
-            "post_date": "2017-08-24 09:32:49",
-            "thumb": "portal/20170824/599e34207bed2.jpg",
-            "photo": [
+            "post_title":"一品艺活首页",
+            "post_excerpt":"我的艺活",
+            "post_content":"&lt;p&gt;一品艺活一品艺活内容&lt;/p&gt;",
+            "post_date":"2017-08-24 09:32:49",
+            "thumb":"portal/20170824/599e34207bed2.jpg",
+            "photo":[
                 {
-                    "url": "http://cmf.zb/data/upload/portal/20170824/599e340d574e2.png",
-                    "alt": "QQ图片20170518171734.png"
+                    "url":"http://cmf.zb/data/upload/portal/20170824/599e340d574e2.png",
+                    "alt":"QQ图片20170518171734.png"
                 },
                 {
-                    "url": "http://cmf.zb/data/upload/portal/20170824/599e34144bd4a.jpg",
-                    "alt": "3.jpg"
+                    "url":"http://cmf.zb/data/upload/portal/20170824/599e34144bd4a.jpg",
+                    "alt":"3.jpg"
                 }
             ],
-            "video": [
+            "video":[
                 {
-                    "url": "http://cmf.zb/data/upload/portal/20170824/599e328b08342.mp4",
-                    "alt": "少时诵诗书"
+                    "url":"http://cmf.zb/data/upload/portal/20170824/599e328b08342.mp4",
+                    "alt":"少时诵诗书"
                 }
             ]
         },
         {
-            "post_title": "日常之中，嗅得艺味。 ",
-            "post_excerpt": "日常之中，嗅得艺味。 ",
-            "post_content": "&lt;p&gt;&lt;span style=\"color: rgb(51, 51, 51); font-family: arial, 宋体, sans-serif; font-size: 14px; text-indent: 28px; background-color: rgb(255, 255, 255);\"&gt;它借鉴了纯雕塑艺术风格，但又不同于纯雕塑&lt;/span&gt;&lt;/p&gt;",
-            "post_date": "2017-08-21 22:24:22",
-            "thumb": "portal/20170821/599aedbaadae9.jpeg",
-            "photo": [
+            "post_title":"日常之中，嗅得艺味。 ",
+            "post_excerpt":"日常之中，嗅得艺味。 ",
+            "post_content":"&lt;p&gt;&lt;span style="color: rgb(51, 51, 51); font-family: arial, 宋体, sans-serif; font-size: 14px; text-indent: 28px; background-color: rgb(255, 255, 255);"&gt;它借鉴了纯雕塑艺术风格，但又不同于纯雕塑&lt;/span&gt;&lt;/p&gt;",
+            "post_date":"2017-08-21 22:24:22",
+            "thumb":"portal/20170821/599aedbaadae9.jpeg",
+            "photo":[
                 {
-                    "url": "http://cmf.zb/data/upload/portal/20170821/599aedc8962f5.jpeg",
-                    "alt": "timg (1).jpeg"
+                    "url":"http://cmf.zb/data/upload/portal/20170821/599aedc8962f5.jpeg",
+                    "alt":"timg (1).jpeg"
                 }
             ],
-            "video": null
+            "video":null
         }
     ]
 }</t>
@@ -138,7 +138,7 @@
 701：注册方式不存在；</t>
   </si>
   <si>
-    <t>i_type返回数据格式类型; 0:base64;1;json_encode;2:array</t>
+    <t>注：i_type返回数据格式类型; 0:base64;1;json_encode;2:array;4:CryptAES加密</t>
   </si>
 </sst>
 </file>
@@ -146,12 +146,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,53 +212,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,30 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -295,6 +273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -314,6 +299,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +341,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,37 +425,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,25 +485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,97 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +563,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -566,26 +582,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +615,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,16 +646,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,119 +664,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +794,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1141,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1362,21 +1372,21 @@
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="22" ht="9" customHeight="1"/>
   </sheetData>
@@ -1397,7 +1407,7 @@
     <mergeCell ref="A16:G17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://cmf.zb/portal/api/index"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://yp.5dogo.shop/portal/api/index?token=ypyh&amp;i_type=1" tooltip="http://yp.5dogo.shop/portal/api/index?token=ypyh&amp;i_type=1"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/一品艺活数据接口v1.1.1.xlsx
+++ b/一品艺活数据接口v1.1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -191,7 +191,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,107 +305,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,19 +335,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,133 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +526,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,6 +579,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,67 +621,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,16 +646,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,115 +664,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
